--- a/preserve-standard-metadata.xlsx
+++ b/preserve-standard-metadata.xlsx
@@ -5,25 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Lehigh\Work From Home\Spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Lehigh\Work From Home\Spreadsheet\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05305C1F-3143-4448-9713-029F046B6AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09532EBB-F442-432E-97A1-1592AC394C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="789" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Islandora Metadata Template" sheetId="1" r:id="rId1"/>
     <sheet name="cmodel list" sheetId="2" r:id="rId2"/>
     <sheet name="Creator Status list" sheetId="10" r:id="rId3"/>
-    <sheet name="Type list" sheetId="3" r:id="rId4"/>
-    <sheet name="Date-Qualifier list" sheetId="4" r:id="rId5"/>
-    <sheet name="Language list" sheetId="5" r:id="rId6"/>
-    <sheet name="Form list" sheetId="11" r:id="rId7"/>
-    <sheet name="File-Format list" sheetId="6" r:id="rId8"/>
-    <sheet name="Digital-Origin list" sheetId="7" r:id="rId9"/>
-    <sheet name="Capture-Device list" sheetId="8" r:id="rId10"/>
-    <sheet name="Continent list" sheetId="9" r:id="rId11"/>
+    <sheet name="Departments" sheetId="13" r:id="rId4"/>
+    <sheet name="Type list" sheetId="3" r:id="rId5"/>
+    <sheet name="Date-Qualifier list" sheetId="4" r:id="rId6"/>
+    <sheet name="Language list" sheetId="5" r:id="rId7"/>
+    <sheet name="Form list" sheetId="11" r:id="rId8"/>
+    <sheet name="Genre List" sheetId="12" r:id="rId9"/>
+    <sheet name="File-Format list" sheetId="6" r:id="rId10"/>
+    <sheet name="Digital-Origin list" sheetId="7" r:id="rId11"/>
+    <sheet name="Capture-Device list" sheetId="8" r:id="rId12"/>
+    <sheet name="Continent list" sheetId="9" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -866,7 +868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{ACE9F1BF-C616-4680-8DBD-DF6BFB8D98FC}">
+    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{ACE9F1BF-C616-4680-8DBD-DF6BFB8D98FC}">
       <text>
         <r>
           <rPr>
@@ -891,7 +893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{3C8AC224-C308-41F9-9AF6-DC71515D8098}">
+    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{3C8AC224-C308-41F9-9AF6-DC71515D8098}">
       <text>
         <r>
           <rPr>
@@ -921,7 +923,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{5C0A6C82-6B8A-4ADD-AA15-F5F27C7C9B16}">
+    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{5C0A6C82-6B8A-4ADD-AA15-F5F27C7C9B16}">
       <text>
         <r>
           <rPr>
@@ -946,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{795F82C3-4195-4E48-981C-501ABEED3CA8}">
+    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{795F82C3-4195-4E48-981C-501ABEED3CA8}">
       <text>
         <r>
           <rPr>
@@ -975,7 +977,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{B17F5182-5CD6-471A-802B-B04940EB1F07}">
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{B17F5182-5CD6-471A-802B-B04940EB1F07}">
       <text>
         <r>
           <rPr>
@@ -1002,7 +1004,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{6FA6BCB2-96AD-42FE-B85A-93E824A4B205}">
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{6FA6BCB2-96AD-42FE-B85A-93E824A4B205}">
       <text>
         <r>
           <rPr>
@@ -1027,7 +1029,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{83A64A19-0D57-4885-9A2C-DFE6B3D0CF3A}">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{83A64A19-0D57-4885-9A2C-DFE6B3D0CF3A}">
       <text>
         <r>
           <rPr>
@@ -1054,7 +1056,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{C23793B6-57EA-4BE5-9374-0C67D52D0D5C}">
+    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{C23793B6-57EA-4BE5-9374-0C67D52D0D5C}">
       <text>
         <r>
           <rPr>
@@ -1081,7 +1083,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{4500A268-EF31-4F3C-9D7B-2CBB70B9E291}">
+    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{4500A268-EF31-4F3C-9D7B-2CBB70B9E291}">
       <text>
         <r>
           <rPr>
@@ -1107,7 +1109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD1" authorId="0" shapeId="0" xr:uid="{6E8A1D6E-E9E7-4730-96F4-42FCA2E3B89E}">
+    <comment ref="BE1" authorId="0" shapeId="0" xr:uid="{6E8A1D6E-E9E7-4730-96F4-42FCA2E3B89E}">
       <text>
         <r>
           <rPr>
@@ -1132,7 +1134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF1" authorId="0" shapeId="0" xr:uid="{8F72E90C-4BED-4038-997E-A10E8E8AA220}">
+    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{8F72E90C-4BED-4038-997E-A10E8E8AA220}">
       <text>
         <r>
           <rPr>
@@ -1157,7 +1159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{7D7262B2-604D-4B7F-8CCD-D4AD1EB59919}">
+    <comment ref="BH1" authorId="0" shapeId="0" xr:uid="{7D7262B2-604D-4B7F-8CCD-D4AD1EB59919}">
       <text>
         <r>
           <rPr>
@@ -1182,7 +1184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI1" authorId="0" shapeId="0" xr:uid="{8903C426-306A-4610-8322-B47368832A22}">
+    <comment ref="BJ1" authorId="0" shapeId="0" xr:uid="{8903C426-306A-4610-8322-B47368832A22}">
       <text>
         <r>
           <rPr>
@@ -1207,7 +1209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="0" shapeId="0" xr:uid="{581ADCAD-C33E-4E29-A328-0CB4CAFA8386}">
+    <comment ref="BK1" authorId="0" shapeId="0" xr:uid="{581ADCAD-C33E-4E29-A328-0CB4CAFA8386}">
       <text>
         <r>
           <rPr>
@@ -1232,7 +1234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BK1" authorId="0" shapeId="0" xr:uid="{2D74D483-8099-47E3-BB22-E0D0F1C8457F}">
+    <comment ref="BL1" authorId="0" shapeId="0" xr:uid="{2D74D483-8099-47E3-BB22-E0D0F1C8457F}">
       <text>
         <r>
           <rPr>
@@ -1262,7 +1264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1243">
   <si>
     <t>Title</t>
   </si>
@@ -4784,6 +4786,213 @@
   </si>
   <si>
     <t>Table-Of-Contents</t>
+  </si>
+  <si>
+    <t>AAT Term</t>
+  </si>
+  <si>
+    <t>AAT URI</t>
+  </si>
+  <si>
+    <t>electronic documents</t>
+  </si>
+  <si>
+    <t>http://vocab.getty.edu/page/aat/300266679</t>
+  </si>
+  <si>
+    <t>http://vocab.getty.edu/page/aat/300028051</t>
+  </si>
+  <si>
+    <t>http://vocab.getty.edu/page/aat/300027240</t>
+  </si>
+  <si>
+    <t>http://vocab.getty.edu/page/aat/300395494</t>
+  </si>
+  <si>
+    <t>fliers (printed matter)</t>
+  </si>
+  <si>
+    <t>http://vocab.getty.edu/page/aat/300224742</t>
+  </si>
+  <si>
+    <t>articles</t>
+  </si>
+  <si>
+    <t>http://vocab.getty.edu/page/aat/300048715</t>
+  </si>
+  <si>
+    <t>indexes (reference sources)</t>
+  </si>
+  <si>
+    <t>http://vocab.getty.edu/page/aat/300026554</t>
+  </si>
+  <si>
+    <t>extracts (partial documents)</t>
+  </si>
+  <si>
+    <t>http://vocab.getty.edu/page/aat/300312154</t>
+  </si>
+  <si>
+    <t>reference sources</t>
+  </si>
+  <si>
+    <t>http://vocab.getty.edu/page/aat/300163404</t>
+  </si>
+  <si>
+    <t>American Studies</t>
+  </si>
+  <si>
+    <t>Applied Mathematics</t>
+  </si>
+  <si>
+    <t>Behavioral Neuroscience</t>
+  </si>
+  <si>
+    <t>Biochemistry</t>
+  </si>
+  <si>
+    <t>Biological Sciences</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Chemical Engineering</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Civil and Environmental Engineering</t>
+  </si>
+  <si>
+    <t>Civil Engineering</t>
+  </si>
+  <si>
+    <t>Comparative and International Education</t>
+  </si>
+  <si>
+    <t>Computer Engineering</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>Computer Science and Electrical Engineering</t>
+  </si>
+  <si>
+    <t>Computer Science and Engineering</t>
+  </si>
+  <si>
+    <t>Counseling Psychology</t>
+  </si>
+  <si>
+    <t>Earth and Environmental Sciences</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Educational Leadership</t>
+  </si>
+  <si>
+    <t>Electrical and Computer Engineering</t>
+  </si>
+  <si>
+    <t>Electrical Engineering</t>
+  </si>
+  <si>
+    <t>Electrical Engineering and Computer Science</t>
+  </si>
+  <si>
+    <t>Environmental Engineering</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Industrial and Manufacturing Systems Engineering</t>
+  </si>
+  <si>
+    <t>Industrial and Systems Engineering</t>
+  </si>
+  <si>
+    <t>Industrial Engineering</t>
+  </si>
+  <si>
+    <t>Information and Systems Engineering</t>
+  </si>
+  <si>
+    <t>Integrative Biology</t>
+  </si>
+  <si>
+    <t>Management of Technology</t>
+  </si>
+  <si>
+    <t>Management Science</t>
+  </si>
+  <si>
+    <t>Manufacturing and Systems Engineering</t>
+  </si>
+  <si>
+    <t>Materials Science and Engineering</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering and Mechanics</t>
+  </si>
+  <si>
+    <t>Molecular Biology</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Political Science</t>
+  </si>
+  <si>
+    <t>Polymer Science and Engineering</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>School Psychology</t>
+  </si>
+  <si>
+    <t>Social Relations</t>
+  </si>
+  <si>
+    <t>Sociology</t>
+  </si>
+  <si>
+    <t>Sociology and Anthropology</t>
+  </si>
+  <si>
+    <t>Special Education</t>
+  </si>
+  <si>
+    <t>Structural Engineering</t>
+  </si>
+  <si>
+    <t>Teaching, Learning, and Technology</t>
+  </si>
+  <si>
+    <t>reviews (documents)</t>
+  </si>
+  <si>
+    <t>http://vocab.getty.edu/page/aat/300026480</t>
+  </si>
+  <si>
+    <t>Preferred-Citation</t>
   </si>
 </sst>
 </file>
@@ -4793,7 +5002,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4866,6 +5075,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -4923,7 +5153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -5013,11 +5243,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC1C7D0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC1C7D0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC1C7D0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC1C7D0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5064,6 +5310,15 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5071,7 +5326,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5350,10 +5606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN1"/>
+  <dimension ref="A1:BO1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM5" sqref="AM5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5381,24 +5637,24 @@
     <col min="32" max="32" width="14.5703125" customWidth="1"/>
     <col min="33" max="33" width="11.5703125" customWidth="1"/>
     <col min="34" max="35" width="14.42578125" customWidth="1"/>
-    <col min="36" max="39" width="19.140625" customWidth="1"/>
-    <col min="40" max="40" width="18.5703125" customWidth="1"/>
-    <col min="41" max="41" width="16.7109375" customWidth="1"/>
-    <col min="42" max="42" width="13.85546875" customWidth="1"/>
-    <col min="43" max="43" width="12" customWidth="1"/>
-    <col min="48" max="49" width="16.140625" customWidth="1"/>
-    <col min="50" max="50" width="13.7109375" customWidth="1"/>
-    <col min="51" max="51" width="19.140625" customWidth="1"/>
-    <col min="52" max="55" width="25.7109375" customWidth="1"/>
-    <col min="56" max="60" width="23.28515625" customWidth="1"/>
-    <col min="62" max="62" width="16.28515625" customWidth="1"/>
-    <col min="63" max="63" width="13.140625" customWidth="1"/>
-    <col min="64" max="64" width="19.7109375" customWidth="1"/>
-    <col min="65" max="65" width="16.85546875" customWidth="1"/>
-    <col min="66" max="66" width="20.5703125" customWidth="1"/>
+    <col min="36" max="40" width="19.140625" customWidth="1"/>
+    <col min="41" max="41" width="18.5703125" customWidth="1"/>
+    <col min="42" max="42" width="16.7109375" customWidth="1"/>
+    <col min="43" max="43" width="13.85546875" customWidth="1"/>
+    <col min="44" max="44" width="12" customWidth="1"/>
+    <col min="49" max="50" width="16.140625" customWidth="1"/>
+    <col min="51" max="51" width="13.7109375" customWidth="1"/>
+    <col min="52" max="52" width="19.140625" customWidth="1"/>
+    <col min="53" max="56" width="25.7109375" customWidth="1"/>
+    <col min="57" max="61" width="23.28515625" customWidth="1"/>
+    <col min="63" max="63" width="16.28515625" customWidth="1"/>
+    <col min="64" max="64" width="13.140625" customWidth="1"/>
+    <col min="65" max="65" width="19.7109375" customWidth="1"/>
+    <col min="66" max="66" width="16.85546875" customWidth="1"/>
+    <col min="67" max="67" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -5513,88 +5769,91 @@
       <c r="AL1" s="8" t="s">
         <v>1173</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="8" t="s">
+        <v>1242</v>
+      </c>
+      <c r="AN1" s="5" t="s">
         <v>1168</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AU1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AV1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AW1" s="20" t="s">
+      <c r="AX1" s="20" t="s">
         <v>1151</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>1152</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>1153</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>1154</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>1163</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>1155</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>1162</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="BH1" s="8" t="s">
+      <c r="BI1" s="8" t="s">
         <v>1165</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="BL1" s="8" t="s">
+      <c r="BM1" s="8" t="s">
         <v>1156</v>
       </c>
-      <c r="BM1" s="8" t="s">
+      <c r="BN1" s="8" t="s">
         <v>1157</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="BO1" s="8" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -5605,7 +5864,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A4CECED3-1874-4725-AF24-6A58CDC2B3A9}">
           <x14:formula1>
             <xm:f>'cmodel list'!$C$2:$C$23</xm:f>
@@ -5634,13 +5893,31 @@
           <x14:formula1>
             <xm:f>'Capture-Device list'!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AN2:AN1048576</xm:sqref>
+          <xm:sqref>AO2:AO1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4B785CF6-50BB-4D62-B1E7-6D2B06C23EE6}">
           <x14:formula1>
             <xm:f>'Creator Status list'!$A$1:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>J2:J1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8594176B-B4D4-45A5-9D22-7A0CD3AA3376}">
+          <x14:formula1>
+            <xm:f>'Language list'!$B$2:$B$548</xm:f>
+          </x14:formula1>
+          <xm:sqref>AC1:AC1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D6EEDB1A-39A3-466A-BD21-575AA8E1C06B}">
+          <x14:formula1>
+            <xm:f>Departments!$A$2:$A$51</xm:f>
+          </x14:formula1>
+          <xm:sqref>O1:O1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{32216E77-359A-4520-92EA-8DFCC393471E}">
+          <x14:formula1>
+            <xm:f>'Language list'!A2:A548</xm:f>
+          </x14:formula1>
+          <xm:sqref>AB1:AB1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5649,6 +5926,140 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6814C83F-E50F-4DAE-98B2-B30B301D2B98}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A15">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F748D0-7A45-48EF-8AAF-D3D09CF63593}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D578EF-649E-426F-B6DD-09CD02AA5A10}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -5691,12 +6102,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD5491B-C624-4528-B9ED-C8B60AB1975C}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5748,8 +6159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D683CAF2-FFE1-4CCB-B02A-359581E80D5C}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5869,7 +6280,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="138.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>62</v>
       </c>
@@ -5880,7 +6291,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="138.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>62</v>
       </c>
@@ -5891,7 +6302,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="138.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>69</v>
       </c>
@@ -5902,7 +6313,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>72</v>
       </c>
@@ -5913,7 +6324,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>72</v>
       </c>
@@ -5924,7 +6335,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>72</v>
       </c>
@@ -6027,6 +6438,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
@@ -6055,6 +6469,281 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1469E36D-CA15-4244-857E-E1A8338FB29D}">
+  <dimension ref="A1:A51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.140625" style="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="27" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="27" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="27" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="27" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="27" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="27" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="27" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="27" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="27" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="27" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="27" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="27" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="27" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="27" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="27" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="27" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC999B7A-9DE2-4AAB-932C-9018DD5593E8}">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -6128,7 +6817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EE83ED-6E60-4266-A9F6-79BD45349FC7}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -6161,11 +6850,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336B688F-578B-4510-A5BD-26A0C37A1BA3}">
   <dimension ref="A1:B548"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A318" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6282,7 +6971,7 @@
       <c r="A14" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="29" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6290,7 +6979,7 @@
       <c r="A15" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="30"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -6376,7 +7065,7 @@
       <c r="A26" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="29" t="s">
         <v>159</v>
       </c>
     </row>
@@ -6384,7 +7073,7 @@
       <c r="A27" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B27" s="25"/>
+      <c r="B27" s="30"/>
     </row>
     <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
@@ -6542,7 +7231,7 @@
       <c r="A47" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="29" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6550,7 +7239,7 @@
       <c r="A48" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="B48" s="25"/>
+      <c r="B48" s="30"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
@@ -6668,7 +7357,7 @@
       <c r="A63" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="29" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6676,7 +7365,7 @@
       <c r="A64" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="B64" s="25"/>
+      <c r="B64" s="30"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
@@ -6738,7 +7427,7 @@
       <c r="A72" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="29" t="s">
         <v>248</v>
       </c>
     </row>
@@ -6746,7 +7435,7 @@
       <c r="A73" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B73" s="25"/>
+      <c r="B73" s="30"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
@@ -6816,7 +7505,7 @@
       <c r="A82" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="B82" s="24" t="s">
+      <c r="B82" s="29" t="s">
         <v>267</v>
       </c>
     </row>
@@ -6824,7 +7513,7 @@
       <c r="A83" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="B83" s="25"/>
+      <c r="B83" s="30"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
@@ -6862,7 +7551,7 @@
       <c r="A88" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="B88" s="24" t="s">
+      <c r="B88" s="29" t="s">
         <v>278</v>
       </c>
     </row>
@@ -6870,7 +7559,7 @@
       <c r="A89" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B89" s="25"/>
+      <c r="B89" s="30"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
@@ -7052,7 +7741,7 @@
       <c r="A112" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="29" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7060,13 +7749,13 @@
       <c r="A113" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="B113" s="25"/>
+      <c r="B113" s="30"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="B114" s="24" t="s">
+      <c r="B114" s="29" t="s">
         <v>267</v>
       </c>
     </row>
@@ -7074,7 +7763,7 @@
       <c r="A115" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="B115" s="25"/>
+      <c r="B115" s="30"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
@@ -7128,7 +7817,7 @@
       <c r="A122" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="B122" s="24" t="s">
+      <c r="B122" s="29" t="s">
         <v>340</v>
       </c>
     </row>
@@ -7136,7 +7825,7 @@
       <c r="A123" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="B123" s="25"/>
+      <c r="B123" s="30"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
@@ -7206,7 +7895,7 @@
       <c r="A132" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="B132" s="24" t="s">
+      <c r="B132" s="29" t="s">
         <v>359</v>
       </c>
     </row>
@@ -7214,7 +7903,7 @@
       <c r="A133" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="B133" s="25"/>
+      <c r="B133" s="30"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
@@ -7260,7 +7949,7 @@
       <c r="A139" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="B139" s="24" t="s">
+      <c r="B139" s="29" t="s">
         <v>372</v>
       </c>
     </row>
@@ -7268,7 +7957,7 @@
       <c r="A140" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="B140" s="25"/>
+      <c r="B140" s="30"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
@@ -7314,7 +8003,7 @@
       <c r="A146" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B146" s="24" t="s">
+      <c r="B146" s="29" t="s">
         <v>200</v>
       </c>
     </row>
@@ -7322,7 +8011,7 @@
       <c r="A147" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="B147" s="25"/>
+      <c r="B147" s="30"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
@@ -7360,7 +8049,7 @@
       <c r="A152" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="B152" s="24" t="s">
+      <c r="B152" s="29" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7368,7 +8057,7 @@
       <c r="A153" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="B153" s="25"/>
+      <c r="B153" s="30"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
@@ -7422,7 +8111,7 @@
       <c r="A160" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="B160" s="24" t="s">
+      <c r="B160" s="29" t="s">
         <v>408</v>
       </c>
     </row>
@@ -7430,13 +8119,13 @@
       <c r="A161" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="B161" s="25"/>
+      <c r="B161" s="30"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="B162" s="24" t="s">
+      <c r="B162" s="29" t="s">
         <v>408</v>
       </c>
     </row>
@@ -7444,7 +8133,7 @@
       <c r="A163" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="B163" s="25"/>
+      <c r="B163" s="30"/>
     </row>
     <row r="164" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
@@ -7538,7 +8227,7 @@
       <c r="A175" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="B175" s="24" t="s">
+      <c r="B175" s="29" t="s">
         <v>433</v>
       </c>
     </row>
@@ -7546,13 +8235,13 @@
       <c r="A176" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="B176" s="25"/>
+      <c r="B176" s="30"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="B177" s="24" t="s">
+      <c r="B177" s="29" t="s">
         <v>340</v>
       </c>
     </row>
@@ -7560,7 +8249,7 @@
       <c r="A178" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="B178" s="25"/>
+      <c r="B178" s="30"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
@@ -7670,7 +8359,7 @@
       <c r="A192" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="B192" s="24" t="s">
+      <c r="B192" s="29" t="s">
         <v>372</v>
       </c>
     </row>
@@ -7678,7 +8367,7 @@
       <c r="A193" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="B193" s="25"/>
+      <c r="B193" s="30"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
@@ -7844,7 +8533,7 @@
       <c r="A214" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B214" s="24" t="s">
+      <c r="B214" s="29" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7852,7 +8541,7 @@
       <c r="A215" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B215" s="25"/>
+      <c r="B215" s="30"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="s">
@@ -7874,7 +8563,7 @@
       <c r="A218" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="B218" s="24" t="s">
+      <c r="B218" s="29" t="s">
         <v>506</v>
       </c>
     </row>
@@ -7882,7 +8571,7 @@
       <c r="A219" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="B219" s="25"/>
+      <c r="B219" s="30"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="s">
@@ -8000,7 +8689,7 @@
       <c r="A234" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="B234" s="24" t="s">
+      <c r="B234" s="29" t="s">
         <v>506</v>
       </c>
     </row>
@@ -8008,7 +8697,7 @@
       <c r="A235" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="B235" s="25"/>
+      <c r="B235" s="30"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="s">
@@ -8126,7 +8815,7 @@
       <c r="A250" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="B250" s="24" t="s">
+      <c r="B250" s="29" t="s">
         <v>433</v>
       </c>
     </row>
@@ -8134,7 +8823,7 @@
       <c r="A251" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="B251" s="25"/>
+      <c r="B251" s="30"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="13" t="s">
@@ -8508,7 +9197,7 @@
       <c r="A298" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="B298" s="24" t="s">
+      <c r="B298" s="29" t="s">
         <v>657</v>
       </c>
     </row>
@@ -8516,7 +9205,7 @@
       <c r="A299" s="15" t="s">
         <v>656</v>
       </c>
-      <c r="B299" s="25"/>
+      <c r="B299" s="30"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="13" t="s">
@@ -8578,7 +9267,7 @@
       <c r="A307" s="14" t="s">
         <v>672</v>
       </c>
-      <c r="B307" s="24" t="s">
+      <c r="B307" s="29" t="s">
         <v>674</v>
       </c>
     </row>
@@ -8586,7 +9275,7 @@
       <c r="A308" s="15" t="s">
         <v>673</v>
       </c>
-      <c r="B308" s="25"/>
+      <c r="B308" s="30"/>
     </row>
     <row r="309" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A309" s="13" t="s">
@@ -8616,7 +9305,7 @@
       <c r="A312" s="14" t="s">
         <v>681</v>
       </c>
-      <c r="B312" s="24" t="s">
+      <c r="B312" s="29" t="s">
         <v>683</v>
       </c>
     </row>
@@ -8624,7 +9313,7 @@
       <c r="A313" s="15" t="s">
         <v>682</v>
       </c>
-      <c r="B313" s="25"/>
+      <c r="B313" s="30"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="13" t="s">
@@ -8686,7 +9375,7 @@
       <c r="A321" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="B321" s="24" t="s">
+      <c r="B321" s="29" t="s">
         <v>657</v>
       </c>
     </row>
@@ -8694,7 +9383,7 @@
       <c r="A322" s="15" t="s">
         <v>656</v>
       </c>
-      <c r="B322" s="25"/>
+      <c r="B322" s="30"/>
     </row>
     <row r="323" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A323" s="13" t="s">
@@ -8772,7 +9461,7 @@
       <c r="A332" s="14" t="s">
         <v>672</v>
       </c>
-      <c r="B332" s="24" t="s">
+      <c r="B332" s="29" t="s">
         <v>674</v>
       </c>
     </row>
@@ -8780,13 +9469,13 @@
       <c r="A333" s="15" t="s">
         <v>673</v>
       </c>
-      <c r="B333" s="25"/>
+      <c r="B333" s="30"/>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="14" t="s">
         <v>681</v>
       </c>
-      <c r="B334" s="24" t="s">
+      <c r="B334" s="29" t="s">
         <v>683</v>
       </c>
     </row>
@@ -8794,7 +9483,7 @@
       <c r="A335" s="15" t="s">
         <v>682</v>
       </c>
-      <c r="B335" s="25"/>
+      <c r="B335" s="30"/>
     </row>
     <row r="336" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A336" s="13" t="s">
@@ -8840,7 +9529,7 @@
       <c r="A341" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="B341" s="24" t="s">
+      <c r="B341" s="29" t="s">
         <v>248</v>
       </c>
     </row>
@@ -8848,7 +9537,7 @@
       <c r="A342" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B342" s="25"/>
+      <c r="B342" s="30"/>
     </row>
     <row r="343" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A343" s="13" t="s">
@@ -8982,7 +9671,7 @@
       <c r="A359" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="B359" s="24" t="s">
+      <c r="B359" s="29" t="s">
         <v>359</v>
       </c>
     </row>
@@ -8990,7 +9679,7 @@
       <c r="A360" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="B360" s="25"/>
+      <c r="B360" s="30"/>
     </row>
     <row r="361" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A361" s="13" t="s">
@@ -9236,7 +9925,7 @@
       <c r="A391" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="B391" s="24" t="s">
+      <c r="B391" s="29" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9244,7 +9933,7 @@
       <c r="A392" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="B392" s="25"/>
+      <c r="B392" s="30"/>
     </row>
     <row r="393" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A393" s="13" t="s">
@@ -9386,7 +10075,7 @@
       <c r="A410" s="14" t="s">
         <v>852</v>
       </c>
-      <c r="B410" s="24" t="s">
+      <c r="B410" s="29" t="s">
         <v>854</v>
       </c>
     </row>
@@ -9394,13 +10083,13 @@
       <c r="A411" s="15" t="s">
         <v>853</v>
       </c>
-      <c r="B411" s="25"/>
+      <c r="B411" s="30"/>
     </row>
     <row r="412" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="14" t="s">
         <v>852</v>
       </c>
-      <c r="B412" s="24" t="s">
+      <c r="B412" s="29" t="s">
         <v>854</v>
       </c>
     </row>
@@ -9408,7 +10097,7 @@
       <c r="A413" s="15" t="s">
         <v>853</v>
       </c>
-      <c r="B413" s="25"/>
+      <c r="B413" s="30"/>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="13" t="s">
@@ -9606,7 +10295,7 @@
       <c r="A438" s="14" t="s">
         <v>903</v>
       </c>
-      <c r="B438" s="24" t="s">
+      <c r="B438" s="29" t="s">
         <v>905</v>
       </c>
     </row>
@@ -9614,13 +10303,13 @@
       <c r="A439" s="15" t="s">
         <v>904</v>
       </c>
-      <c r="B439" s="25"/>
+      <c r="B439" s="30"/>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="14" t="s">
         <v>903</v>
       </c>
-      <c r="B440" s="24" t="s">
+      <c r="B440" s="29" t="s">
         <v>905</v>
       </c>
     </row>
@@ -9628,7 +10317,7 @@
       <c r="A441" s="15" t="s">
         <v>904</v>
       </c>
-      <c r="B441" s="25"/>
+      <c r="B441" s="30"/>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="13" t="s">
@@ -9762,7 +10451,7 @@
       <c r="A458" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B458" s="24" t="s">
+      <c r="B458" s="29" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9770,7 +10459,7 @@
       <c r="A459" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B459" s="25"/>
+      <c r="B459" s="30"/>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="13" t="s">
@@ -9976,7 +10665,7 @@
       <c r="A485" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B485" s="24" t="s">
+      <c r="B485" s="29" t="s">
         <v>231</v>
       </c>
     </row>
@@ -9984,7 +10673,7 @@
       <c r="A486" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="B486" s="25"/>
+      <c r="B486" s="30"/>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="13" t="s">
@@ -10294,7 +10983,7 @@
       <c r="A525" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="B525" s="24" t="s">
+      <c r="B525" s="29" t="s">
         <v>325</v>
       </c>
     </row>
@@ -10302,7 +10991,7 @@
       <c r="A526" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="B526" s="25"/>
+      <c r="B526" s="30"/>
     </row>
     <row r="527" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A527" s="13" t="s">
@@ -10428,7 +11117,7 @@
       <c r="A542" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="B542" s="24" t="s">
+      <c r="B542" s="29" t="s">
         <v>278</v>
       </c>
     </row>
@@ -10436,7 +11125,7 @@
       <c r="A543" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B543" s="25"/>
+      <c r="B543" s="30"/>
     </row>
     <row r="544" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A544" s="13" t="s">
@@ -10480,215 +11169,197 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="B321:B322"/>
+    <mergeCell ref="B332:B333"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="B410:B411"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="B359:B360"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="B341:B342"/>
     <mergeCell ref="B525:B526"/>
     <mergeCell ref="B542:B543"/>
     <mergeCell ref="B458:B459"/>
     <mergeCell ref="B485:B486"/>
     <mergeCell ref="B438:B439"/>
     <mergeCell ref="B440:B441"/>
-    <mergeCell ref="B410:B411"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="B359:B360"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="B341:B342"/>
-    <mergeCell ref="B321:B322"/>
-    <mergeCell ref="B332:B333"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="B312:B313"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B114:B115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A8F774-DF9B-4793-8EAC-DC6543CC2D41}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="25" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="25" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1146</v>
       </c>
+      <c r="B4" s="25" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>1177</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{DE5C3832-BE61-4447-BCD1-55B8490E650D}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{A37C0249-7647-41FC-AF80-C9518C261AA1}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{DE3AACE6-CDA6-4622-97F2-49255CE10148}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId4"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6814C83F-E50F-4DAE-98B2-B30B301D2B98}">
-  <dimension ref="A1:A15"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33B95ED-AE6D-4843-B48F-1891A5A7A8D7}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1183</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1187</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1181</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1185</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1189</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1114</v>
+        <v>1240</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>1241</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A15">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B6">
+    <sortCondition ref="A1:A6"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F748D0-7A45-48EF-8AAF-D3D09CF63593}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{C867CF16-1139-4AD3-BC59-3F3C9A0D0A95}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{102B8B05-C22C-46D6-A0A9-09C0C08057A3}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{C33AC712-DF0F-4233-9F13-CFD66F8674D9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/preserve-standard-metadata.xlsx
+++ b/preserve-standard-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Lehigh\Work From Home\Spreadsheet\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09532EBB-F442-432E-97A1-1592AC394C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1447F3D6-25B3-4152-A65C-757F8783F0D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="789" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Islandora Metadata Template" sheetId="1" r:id="rId1"/>
@@ -1264,7 +1264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="1244">
   <si>
     <t>Title</t>
   </si>
@@ -4993,6 +4993,9 @@
   </si>
   <si>
     <t>Preferred-Citation</t>
+  </si>
+  <si>
+    <t>Article-Number</t>
   </si>
 </sst>
 </file>
@@ -5606,10 +5609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO1"/>
+  <dimension ref="A1:BP1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM5" sqref="AM5"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BN13" sqref="BN13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5648,13 +5651,13 @@
     <col min="53" max="56" width="25.7109375" customWidth="1"/>
     <col min="57" max="61" width="23.28515625" customWidth="1"/>
     <col min="63" max="63" width="16.28515625" customWidth="1"/>
-    <col min="64" max="64" width="13.140625" customWidth="1"/>
-    <col min="65" max="65" width="19.7109375" customWidth="1"/>
-    <col min="66" max="66" width="16.85546875" customWidth="1"/>
-    <col min="67" max="67" width="20.5703125" customWidth="1"/>
+    <col min="64" max="65" width="13.140625" customWidth="1"/>
+    <col min="66" max="66" width="19.7109375" customWidth="1"/>
+    <col min="67" max="67" width="16.85546875" customWidth="1"/>
+    <col min="68" max="68" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -5847,13 +5850,16 @@
       <c r="BL1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="BM1" s="8" t="s">
+      <c r="BM1" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BN1" s="8" t="s">
         <v>1156</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="BO1" s="8" t="s">
         <v>1157</v>
       </c>
-      <c r="BO1" s="8" t="s">
+      <c r="BP1" s="8" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -11169,46 +11175,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B525:B526"/>
+    <mergeCell ref="B542:B543"/>
+    <mergeCell ref="B458:B459"/>
+    <mergeCell ref="B485:B486"/>
+    <mergeCell ref="B438:B439"/>
+    <mergeCell ref="B440:B441"/>
+    <mergeCell ref="B410:B411"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="B359:B360"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="B341:B342"/>
+    <mergeCell ref="B321:B322"/>
+    <mergeCell ref="B332:B333"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="B177:B178"/>
     <mergeCell ref="B160:B161"/>
     <mergeCell ref="B162:B163"/>
     <mergeCell ref="B146:B147"/>
     <mergeCell ref="B152:B153"/>
     <mergeCell ref="B132:B133"/>
     <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="B321:B322"/>
-    <mergeCell ref="B332:B333"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="B312:B313"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="B410:B411"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="B359:B360"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="B341:B342"/>
-    <mergeCell ref="B525:B526"/>
-    <mergeCell ref="B542:B543"/>
-    <mergeCell ref="B458:B459"/>
-    <mergeCell ref="B485:B486"/>
-    <mergeCell ref="B438:B439"/>
-    <mergeCell ref="B440:B441"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B114:B115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11284,7 +11290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33B95ED-AE6D-4843-B48F-1891A5A7A8D7}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q34" sqref="Q34"/>
     </sheetView>

--- a/preserve-standard-metadata.xlsx
+++ b/preserve-standard-metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Lehigh\Work From Home\Spreadsheet\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Islandora\Spreadsheet Ingest\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1447F3D6-25B3-4152-A65C-757F8783F0D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841BE325-E84D-4DEA-A821-462100A4874A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,7 +302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{A45955F0-C447-4E97-A7BA-BD50D6CFDEEA}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{A45955F0-C447-4E97-A7BA-BD50D6CFDEEA}">
       <text>
         <r>
           <rPr>
@@ -328,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{454DE92F-D709-4465-BBD9-0A87F9FE3884}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{454DE92F-D709-4465-BBD9-0A87F9FE3884}">
       <text>
         <r>
           <rPr>
@@ -355,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{B54B678A-3085-4E00-B156-EEE7F291535C}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{B54B678A-3085-4E00-B156-EEE7F291535C}">
       <text>
         <r>
           <rPr>
@@ -380,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{63A938D5-DD9F-4C28-85B7-862F01C2557B}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{63A938D5-DD9F-4C28-85B7-862F01C2557B}">
       <text>
         <r>
           <rPr>
@@ -406,7 +406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{F3FC3F32-7AD5-4AD5-BC96-E284BC31D639}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{F3FC3F32-7AD5-4AD5-BC96-E284BC31D639}">
       <text>
         <r>
           <rPr>
@@ -433,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{C8C7F5BA-7F77-486D-89C1-EE8841EBF865}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{C8C7F5BA-7F77-486D-89C1-EE8841EBF865}">
       <text>
         <r>
           <rPr>
@@ -459,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{67119DCC-AF6E-4126-84BC-791CAF171D86}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{67119DCC-AF6E-4126-84BC-791CAF171D86}">
       <text>
         <r>
           <rPr>
@@ -484,7 +484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{E3B509DE-43E9-44B5-BDEC-98F9565127F8}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{E3B509DE-43E9-44B5-BDEC-98F9565127F8}">
       <text>
         <r>
           <rPr>
@@ -508,7 +508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{E2CC8CA8-D47F-4EEC-A37F-5713BAB9E324}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{E2CC8CA8-D47F-4EEC-A37F-5713BAB9E324}">
       <text>
         <r>
           <rPr>
@@ -532,7 +532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{091FF495-4462-4CC1-8F23-39AEEA05BB0A}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{091FF495-4462-4CC1-8F23-39AEEA05BB0A}">
       <text>
         <r>
           <rPr>
@@ -558,7 +558,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{E08F8DEB-76A8-4E0E-966F-F84105839B5D}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{E08F8DEB-76A8-4E0E-966F-F84105839B5D}">
       <text>
         <r>
           <rPr>
@@ -582,7 +582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{B0E91B56-1822-41AF-A6F9-757BE53B78B3}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{B0E91B56-1822-41AF-A6F9-757BE53B78B3}">
       <text>
         <r>
           <rPr>
@@ -609,7 +609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{C37A58A6-F5F3-40F1-A828-7C18B781422F}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{C37A58A6-F5F3-40F1-A828-7C18B781422F}">
       <text>
         <r>
           <rPr>
@@ -635,7 +635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{3991E12B-3A71-4A97-B3B5-1180C0193E47}">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{3991E12B-3A71-4A97-B3B5-1180C0193E47}">
       <text>
         <r>
           <rPr>
@@ -661,7 +661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{85E6D484-5A90-45DD-9A06-ACAEA4E36301}">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{85E6D484-5A90-45DD-9A06-ACAEA4E36301}">
       <text>
         <r>
           <rPr>
@@ -687,7 +687,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{F6F51BBE-97C7-4474-9B6A-5F28B5E6742F}">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{F6F51BBE-97C7-4474-9B6A-5F28B5E6742F}">
       <text>
         <r>
           <rPr>
@@ -712,7 +712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{4BBD92AC-9B74-421C-B77E-49175DBE1818}">
+    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{4BBD92AC-9B74-421C-B77E-49175DBE1818}">
       <text>
         <r>
           <rPr>
@@ -738,7 +738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{A13F7FB5-2D79-4361-A957-990F73831417}">
+    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{A13F7FB5-2D79-4361-A957-990F73831417}">
       <text>
         <r>
           <rPr>
@@ -763,7 +763,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{6FFEBC39-3422-4FA0-98D2-223893A185AA}">
+    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{6FFEBC39-3422-4FA0-98D2-223893A185AA}">
       <text>
         <r>
           <rPr>
@@ -789,7 +789,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{5D40D71D-7BB4-4B93-99E1-B2FD752A62E9}">
+    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{5D40D71D-7BB4-4B93-99E1-B2FD752A62E9}">
       <text>
         <r>
           <rPr>
@@ -818,7 +818,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{FC850D2C-B335-4894-B732-C94221F61B96}">
+    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{FC850D2C-B335-4894-B732-C94221F61B96}">
       <text>
         <r>
           <rPr>
@@ -843,7 +843,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{2B000DB6-660D-4091-9425-D687C9E4C607}">
+    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{2B000DB6-660D-4091-9425-D687C9E4C607}">
       <text>
         <r>
           <rPr>
@@ -868,7 +868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{ACE9F1BF-C616-4680-8DBD-DF6BFB8D98FC}">
+    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{ACE9F1BF-C616-4680-8DBD-DF6BFB8D98FC}">
       <text>
         <r>
           <rPr>
@@ -893,7 +893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{3C8AC224-C308-41F9-9AF6-DC71515D8098}">
+    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{3C8AC224-C308-41F9-9AF6-DC71515D8098}">
       <text>
         <r>
           <rPr>
@@ -923,7 +923,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{5C0A6C82-6B8A-4ADD-AA15-F5F27C7C9B16}">
+    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{5C0A6C82-6B8A-4ADD-AA15-F5F27C7C9B16}">
       <text>
         <r>
           <rPr>
@@ -948,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{795F82C3-4195-4E48-981C-501ABEED3CA8}">
+    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{795F82C3-4195-4E48-981C-501ABEED3CA8}">
       <text>
         <r>
           <rPr>
@@ -977,7 +977,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{B17F5182-5CD6-471A-802B-B04940EB1F07}">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{B17F5182-5CD6-471A-802B-B04940EB1F07}">
       <text>
         <r>
           <rPr>
@@ -1004,7 +1004,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{6FA6BCB2-96AD-42FE-B85A-93E824A4B205}">
+    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{6FA6BCB2-96AD-42FE-B85A-93E824A4B205}">
       <text>
         <r>
           <rPr>
@@ -1029,7 +1029,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{83A64A19-0D57-4885-9A2C-DFE6B3D0CF3A}">
+    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{83A64A19-0D57-4885-9A2C-DFE6B3D0CF3A}">
       <text>
         <r>
           <rPr>
@@ -1056,7 +1056,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{C23793B6-57EA-4BE5-9374-0C67D52D0D5C}">
+    <comment ref="BB1" authorId="0" shapeId="0" xr:uid="{C23793B6-57EA-4BE5-9374-0C67D52D0D5C}">
       <text>
         <r>
           <rPr>
@@ -1083,7 +1083,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{4500A268-EF31-4F3C-9D7B-2CBB70B9E291}">
+    <comment ref="BC1" authorId="0" shapeId="0" xr:uid="{4500A268-EF31-4F3C-9D7B-2CBB70B9E291}">
       <text>
         <r>
           <rPr>
@@ -1109,7 +1109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE1" authorId="0" shapeId="0" xr:uid="{6E8A1D6E-E9E7-4730-96F4-42FCA2E3B89E}">
+    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{6E8A1D6E-E9E7-4730-96F4-42FCA2E3B89E}">
       <text>
         <r>
           <rPr>
@@ -1134,7 +1134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{8F72E90C-4BED-4038-997E-A10E8E8AA220}">
+    <comment ref="BI1" authorId="0" shapeId="0" xr:uid="{8F72E90C-4BED-4038-997E-A10E8E8AA220}">
       <text>
         <r>
           <rPr>
@@ -1159,7 +1159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH1" authorId="0" shapeId="0" xr:uid="{7D7262B2-604D-4B7F-8CCD-D4AD1EB59919}">
+    <comment ref="BJ1" authorId="0" shapeId="0" xr:uid="{7D7262B2-604D-4B7F-8CCD-D4AD1EB59919}">
       <text>
         <r>
           <rPr>
@@ -1184,7 +1184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="0" shapeId="0" xr:uid="{8903C426-306A-4610-8322-B47368832A22}">
+    <comment ref="BM1" authorId="0" shapeId="0" xr:uid="{8903C426-306A-4610-8322-B47368832A22}">
       <text>
         <r>
           <rPr>
@@ -1209,7 +1209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BK1" authorId="0" shapeId="0" xr:uid="{581ADCAD-C33E-4E29-A328-0CB4CAFA8386}">
+    <comment ref="BN1" authorId="0" shapeId="0" xr:uid="{581ADCAD-C33E-4E29-A328-0CB4CAFA8386}">
       <text>
         <r>
           <rPr>
@@ -1234,7 +1234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BL1" authorId="0" shapeId="0" xr:uid="{2D74D483-8099-47E3-BB22-E0D0F1C8457F}">
+    <comment ref="BO1" authorId="0" shapeId="0" xr:uid="{2D74D483-8099-47E3-BB22-E0D0F1C8457F}">
       <text>
         <r>
           <rPr>
@@ -1264,7 +1264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="1244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="1247">
   <si>
     <t>Title</t>
   </si>
@@ -4996,6 +4996,15 @@
   </si>
   <si>
     <t>Article-Number</t>
+  </si>
+  <si>
+    <t>Advisors</t>
+  </si>
+  <si>
+    <t>Embargo-Date</t>
+  </si>
+  <si>
+    <t>Report-Number</t>
   </si>
 </sst>
 </file>
@@ -5266,7 +5275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5328,6 +5337,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5609,10 +5619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP1"/>
+  <dimension ref="A1:BS1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BN13" sqref="BN13"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BS27" sqref="BS27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5628,36 +5638,36 @@
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
     <col min="11" max="11" width="22.85546875" customWidth="1"/>
     <col min="12" max="13" width="19.42578125" customWidth="1"/>
-    <col min="14" max="15" width="12.85546875" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" customWidth="1"/>
-    <col min="20" max="20" width="22" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" style="23" customWidth="1"/>
-    <col min="22" max="25" width="17.85546875" style="2" customWidth="1"/>
-    <col min="26" max="27" width="10.140625" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" customWidth="1"/>
-    <col min="30" max="31" width="11.140625" customWidth="1"/>
-    <col min="32" max="32" width="14.5703125" customWidth="1"/>
-    <col min="33" max="33" width="11.5703125" customWidth="1"/>
-    <col min="34" max="35" width="14.42578125" customWidth="1"/>
-    <col min="36" max="40" width="19.140625" customWidth="1"/>
-    <col min="41" max="41" width="18.5703125" customWidth="1"/>
-    <col min="42" max="42" width="16.7109375" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" customWidth="1"/>
-    <col min="44" max="44" width="12" customWidth="1"/>
-    <col min="49" max="50" width="16.140625" customWidth="1"/>
-    <col min="51" max="51" width="13.7109375" customWidth="1"/>
-    <col min="52" max="52" width="19.140625" customWidth="1"/>
-    <col min="53" max="56" width="25.7109375" customWidth="1"/>
-    <col min="57" max="61" width="23.28515625" customWidth="1"/>
-    <col min="63" max="63" width="16.28515625" customWidth="1"/>
-    <col min="64" max="65" width="13.140625" customWidth="1"/>
-    <col min="66" max="66" width="19.7109375" customWidth="1"/>
-    <col min="67" max="67" width="16.85546875" customWidth="1"/>
-    <col min="68" max="68" width="20.5703125" customWidth="1"/>
+    <col min="14" max="16" width="12.85546875" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
+    <col min="20" max="20" width="17.42578125" customWidth="1"/>
+    <col min="21" max="21" width="22" customWidth="1"/>
+    <col min="22" max="23" width="17.85546875" style="23" customWidth="1"/>
+    <col min="24" max="27" width="17.85546875" style="2" customWidth="1"/>
+    <col min="28" max="29" width="10.140625" customWidth="1"/>
+    <col min="30" max="31" width="14.42578125" customWidth="1"/>
+    <col min="32" max="33" width="11.140625" customWidth="1"/>
+    <col min="34" max="34" width="14.5703125" customWidth="1"/>
+    <col min="35" max="35" width="11.5703125" customWidth="1"/>
+    <col min="36" max="37" width="14.42578125" customWidth="1"/>
+    <col min="38" max="42" width="19.140625" customWidth="1"/>
+    <col min="43" max="43" width="18.5703125" customWidth="1"/>
+    <col min="44" max="44" width="16.7109375" customWidth="1"/>
+    <col min="45" max="45" width="13.85546875" customWidth="1"/>
+    <col min="46" max="46" width="12" customWidth="1"/>
+    <col min="51" max="52" width="16.140625" customWidth="1"/>
+    <col min="53" max="53" width="13.7109375" customWidth="1"/>
+    <col min="54" max="54" width="19.140625" customWidth="1"/>
+    <col min="55" max="58" width="25.7109375" customWidth="1"/>
+    <col min="59" max="64" width="23.28515625" customWidth="1"/>
+    <col min="66" max="66" width="16.28515625" customWidth="1"/>
+    <col min="67" max="68" width="13.140625" customWidth="1"/>
+    <col min="69" max="69" width="19.7109375" customWidth="1"/>
+    <col min="70" max="70" width="16.85546875" customWidth="1"/>
+    <col min="71" max="71" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -5701,165 +5711,174 @@
         <v>2</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>1164</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>1142</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>1143</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="V1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="31" t="s">
+        <v>1245</v>
+      </c>
+      <c r="X1" s="6" t="s">
         <v>1166</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="AA1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>1169</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>1147</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>1148</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>1150</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>1173</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>1242</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>1168</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AV1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AW1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AX1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AX1" s="20" t="s">
+      <c r="AZ1" s="20" t="s">
         <v>1151</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>1152</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>1153</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>1154</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>1163</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>1155</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>1162</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="BI1" s="8" t="s">
+      <c r="BK1" s="8" t="s">
         <v>1165</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BL1" s="8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="BM1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BN1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BO1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BP1" s="5" t="s">
         <v>1243</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="BQ1" s="8" t="s">
         <v>1156</v>
       </c>
-      <c r="BO1" s="8" t="s">
+      <c r="BR1" s="8" t="s">
         <v>1157</v>
       </c>
-      <c r="BP1" s="8" t="s">
+      <c r="BS1" s="8" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -5881,25 +5900,25 @@
           <x14:formula1>
             <xm:f>'Type list'!$A$1:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>P2:P1048576</xm:sqref>
+          <xm:sqref>Q2:Q1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{220336D5-88C8-43FC-BAAF-0F62C8E76DFF}">
           <x14:formula1>
             <xm:f>'Date-Qualifier list'!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>T2:T1048576</xm:sqref>
+          <xm:sqref>U2:U1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D7091BA-978E-46FA-96E4-C1D3C047EB93}">
           <x14:formula1>
             <xm:f>'Digital-Origin list'!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AI2:AI1048576</xm:sqref>
+          <xm:sqref>AK2:AK1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0775DFD4-8502-4F27-ACAE-32EBE7E704B0}">
           <x14:formula1>
             <xm:f>'Capture-Device list'!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AO2:AO1048576</xm:sqref>
+          <xm:sqref>AQ2:AQ1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4B785CF6-50BB-4D62-B1E7-6D2B06C23EE6}">
           <x14:formula1>
@@ -5911,19 +5930,19 @@
           <x14:formula1>
             <xm:f>'Language list'!$B$2:$B$548</xm:f>
           </x14:formula1>
-          <xm:sqref>AC1:AC1048576</xm:sqref>
+          <xm:sqref>AE1:AE1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D6EEDB1A-39A3-466A-BD21-575AA8E1C06B}">
           <x14:formula1>
             <xm:f>Departments!$A$2:$A$51</xm:f>
           </x14:formula1>
-          <xm:sqref>O1:O1048576</xm:sqref>
+          <xm:sqref>P1:P1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{32216E77-359A-4520-92EA-8DFCC393471E}">
           <x14:formula1>
             <xm:f>'Language list'!A2:A548</xm:f>
           </x14:formula1>
-          <xm:sqref>AB1:AB1048576</xm:sqref>
+          <xm:sqref>AD1:AD1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6020,7 +6039,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A15">
+  <sortState ref="A1:A15">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11175,46 +11194,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="B321:B322"/>
+    <mergeCell ref="B332:B333"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="B410:B411"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="B359:B360"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="B341:B342"/>
     <mergeCell ref="B525:B526"/>
     <mergeCell ref="B542:B543"/>
     <mergeCell ref="B458:B459"/>
     <mergeCell ref="B485:B486"/>
     <mergeCell ref="B438:B439"/>
     <mergeCell ref="B440:B441"/>
-    <mergeCell ref="B410:B411"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="B359:B360"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="B341:B342"/>
-    <mergeCell ref="B321:B322"/>
-    <mergeCell ref="B332:B333"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="B312:B313"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B114:B115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11358,7 +11377,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B6">
+  <sortState ref="A2:B6">
     <sortCondition ref="A1:A6"/>
   </sortState>
   <hyperlinks>
